--- a/数据整理/stocks/A股/科创板/688052-纳芯微.xlsx
+++ b/数据整理/stocks/A股/科创板/688052-纳芯微.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2701,56 +2753,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688052-纳芯微.xlsx
+++ b/数据整理/stocks/A股/科创板/688052-纳芯微.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>58</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>25.56</v>
       </c>
     </row>
@@ -498,6 +515,2562 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1744</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688052-纳芯微.xlsx
+++ b/数据整理/stocks/A股/科创板/688052-纳芯微.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>17.61</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>58</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>25.56</v>
       </c>
     </row>
@@ -515,6 +532,2606 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016635</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安气候变化责任投资混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016648</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016647</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴业数字经济优选股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3070,7 +5687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
